--- a/Excel/outputMaster.xlsx
+++ b/Excel/outputMaster.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DF793F2-C6DA-4445-8A41-56B025934A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jer\git\EmployeeScheduler\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E249DEC4-EB21-46C5-A973-D381273FABF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4956" yWindow="1284" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Shift</t>
   </si>
@@ -44,13 +38,16 @@
   </si>
   <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>DayOfWeek, Month ##, 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,34 +395,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
